--- a/timesheet_doc/demo database.xlsx
+++ b/timesheet_doc/demo database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>USER</t>
   </si>
@@ -496,11 +496,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -732,6 +730,9 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="M12" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -741,6 +742,11 @@
     <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet_doc/demo database.xlsx
+++ b/timesheet_doc/demo database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>USER</t>
   </si>
@@ -109,31 +109,7 @@
     <t>PROCESS</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>start_time</t>
-  </si>
-  <si>
-    <t>end_time</t>
-  </si>
-  <si>
     <t>TEAM_MEMBER</t>
-  </si>
-  <si>
-    <t>PROJECT</t>
-  </si>
-  <si>
-    <t>project_id</t>
-  </si>
-  <si>
-    <t>budget</t>
-  </si>
-  <si>
-    <t>partner</t>
-  </si>
-  <si>
-    <t>TEAM_PROJECT</t>
   </si>
 </sst>
 </file>
@@ -498,7 +474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -528,14 +506,10 @@
         <v>30</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -556,12 +530,6 @@
       <c r="K3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -582,12 +550,6 @@
       <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="5" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -603,16 +565,10 @@
         <v>29</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -629,15 +585,9 @@
         <v>14</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -654,16 +604,7 @@
       <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -677,12 +618,6 @@
       <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -694,12 +629,6 @@
       <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -711,9 +640,6 @@
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -722,16 +648,10 @@
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
